--- a/s_pics/hp_matches.xlsx
+++ b/s_pics/hp_matches.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,3738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>hp omen 15-en0013ns - ordenador portátil de 15" fhd (amd ryzen 7-4800h, 16gb ram, 512gb ssd, nvidia gtx1650 ti-4gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-15-en0013ns-Ordenador-operativo/dp/B08GKZ4MMN/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0019ns - ordenador portátil de 15.6" full hd (intel core i7-1165g7, 16gb ram, 1000gb ssd, intel iris xe graphics, windows 10 home) silver - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0019ns-Ordenador-i7-1165G7/dp/B08T6FZKRS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hp 15s-fq2037ns - ordenador portátil de 15.6" fullhd (intel core i3-1115g4, 8gb de ram, 256gb ssd, intel uhd graphics, windows 10) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-fq2037ns-Ordenador-port%C3%A1til-i3-1115G4/dp/B08PFKLQN4/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hp 15s-fq2038ns - ordenador portátil de 15,6” fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, gráficos intel iris xe, windows 10 home) plata – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-fq2038ns-Ordenador-port%C3%A1til-i5-1135G7/dp/B08T2666FF/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hp 15s-eq1050ns - ordenador portátil de 15.6" fullhd (ryzen 5-4500u, 12gb de ram, 512gb ssd, amd radeon integrated graphics, sin sistema operativo ) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-eq1050ns-Ordenador-Integrated-operativo/dp/B08MCCV8R2/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hp 15s-eq1072ns - ordenador portátil de 15.6" fullhd (ryzen 3-4300u, 8gb de ram, 512gb ssd, amd radeon integrated graphics, sin sistema operativo ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-eq1072ns-Ordenador-Integrated-operativo/dp/B08PFKCRBN/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hp 15s-eq1073ns - ordenador portátil de 15.6" fullhd (ryzen 7-4700u, 12gb de ram, 1tb ssd, amd radeon integrated graphics, sin sistema operativo ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-eq1073ns-Ordenador-Integrated-operativo/dp/B08PFKHT51/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hp 15s-eq1075ns - ordenador portátil de 15.6" fullhd (athlon 3050u, 8gb de ram, 256gb ssd, amd radeon integrated graphics, sin sistema operativo ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-eq1075ns-Ordenador-Integrated-operativo/dp/B08PFK83TV/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hp 15s-fq2009ns – ordenador portátil de 15,6” fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, gráficos intel iris xe, windows 10 home) plata – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-fq2009ns-Ordenador-port%C3%A1til-i5-1135G7/dp/B08MCDZGYM/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0018ns - ordenador portátil de 15.6" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) blue - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0018ns-Ordenador-i7-1165G7/dp/B08T6G26J8/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 15  </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 15-ec1028ns 15.6" fullhd (1920 x 1080 pixeles amd ryzen 7 16 gb 512 gb ssd nvidia® geforce® gtx 1650 ti freedos) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-ec1028ns-Pixeles-GeForce%C2%AE/dp/B08T218PJ8/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+15&amp;qid=1630944224&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 17  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>portatil hp 17 - ca2000ns ryzen 3-3250u 17.3pulgadas 8gb - ssd512gb - radeon vega - wifi - bt - w10 - plata</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Portatil-17-ca2000ns-17-3pulgadas-ssd512gb/dp/B08KTC5V36/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+17&amp;qid=1630944270&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 17  </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>portátil hp envy 17-cg1000ns, i7-1165g7 (2.8ghz), nvidia geforce mx450 2gb, 17.3" fhd led, 16gb ram (2x8gb), ssd 1tb pcie nvme, wifi, bluetooth, webcam, windows 10 h (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-17-cg1000ns-i7-1165G7-Bluetooth-Reacondicionado/dp/B096YC1S85/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+17&amp;qid=1630944270&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 17  </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hp notebook 17-cn0001ns</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-406A7EA-ABF-Notebook-17-CN0001NS/dp/B095BLG8VS/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+17&amp;qid=1630944270&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 17  </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hp zbook fury 17 g7 estación de trabajo móvil - 43,9 cm (17,3") - core i7 10750h - silber</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBook-Estaci%C3%B3n-Trabajo-m%C3%B3vil/dp/B08N5FF5XR/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+17&amp;qid=1630944270&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 17  </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>hp portátil envy 17-cg0000ns intel core i7-1065g7, ram 16gb, 1tb pcie nvme m.2 ssd, 17.3" nvidia geforce mx330 2gb, win 10 home, teclado español (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Port%C3%A1til-17-cg0000ns-i7-1065G7-Reacondicionado/dp/B08NP4QFHG/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+17&amp;qid=1630944270&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 250 g6  </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>portátil hp 250 g6 1wy58ea - i5-7200u 2.5 ghz - 4gb - 256gb ssd - 15.6/39.6 cm hd - dvd+-wr - wifi - bt- hdmi - freedos 2.0 - plata</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORT%C3%81TIL-HP-250-G6-1WY58EA/dp/B0759GHD1Y/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+250+g6&amp;qid=1630944299&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>hp portatil 255 g7 ryzen 3 3200u 15.6" hd 8gb s256gb wifi.ac w10h negro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-HP-RYZEN-S256GB-WiFi-AC/dp/B08BBZDGKK/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>hp 255 g7 ordenador portátil 15.6" hd a4 9125, 8gb ram, 256 gb ssd m.2, radeon r3 graphics, windows 10 professional, hdmi,- teclado qwerty italiano notebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Notebook-255-G6-15-6-Quad-R2-Graphic-port%C3%A1til-navegaci%C3%B3n/dp/B077B8VV5Y/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>hp 255 g7 ordenador portátil 15.6" hd a4 9125 2.60ghz turbo, 8gb ram, 512 gb ssd m.2, radeon r3 graphics, windows 10 professional, hdmi,- teclado qwerty italiano notebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Ordenador-port%C3%A1til-Graphics-Professional/dp/B07SM851QZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>hp 255 g7 r3-3200u 15 8/256 w10h</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-255-R3-3200u-256-W10h/dp/B08B541GB7/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>hp 255 g7 r5-3500u syst</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-255-R5-3500u-256-W10p/dp/B08CMSQP51/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>portátil pc portátil hp 255 g7 hasta 2.6 ghz pantalla 15.6 ", ssd m.2 256gb, ram 8gb ddr4, radeon r3 / hdmi, grabadora de dvd cd rw, wifi, bluetooth, licencia windows 10 pro + office pro 2019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-port%C3%A1til-Pantalla-Grabadora-Bluetooth/dp/B07Z512C13/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>hp 255 g7 negro, plata portátil 39,6 cm (15.6") 1920 x 1080 pixeles amd ryzen 5 8 gb ddr4-sdram 256 gb ssd wi-fi 5 (802.11ac) windows 10 pro 255 g7, amd ryzen 5, 2,3 ghz, 39,6 cm (15.6"), 1920</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Port%C3%A1til-Pixeles-DDR4-SDRAM-802-11ac/dp/B086XKY4F1/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hp 255 g7 portátil pc cpu amd athlon 3020e 2 núcleos, ddr4 8 gb, ssd 256 gb, notebook 15,6 pulgadas, pantalla hd 1366 x 768 antiglare, webcam, hdmi, dvd, bt, win10, listo para usar.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/255-Port%C3%A1til-Notebook-pulgadas-Antiglare/dp/B08L985GGH/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hp 255 g7 r3-3200u syst</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-255-R3-3200U-256-W10P/dp/B08CBDW7YS/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>notebook pc portátil hp 255 g7 pantalla de 15,6 pulgadas cpu amd a4 9125 hasta 2,6 ghz /ram 8 gb ddr4 /hd ssd 240 gb /vga radeon r3 /hdmi grabadora wifi bluetooth /licencia windows 10 pro +ratón wifi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Notebook-port%C3%A1til-HP-grabadora-Bluetooth/dp/B07SJJM3YF/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 255 g7  </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>hp 255 g7 computer portatile nero 39,6 cm (15.6") 1366 x 768 pixel amd ryzen 3 8</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Computer-portatile-Pixel-Ryzen/dp/B08BJ4J21R/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+255+g7&amp;qid=1630944344&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>hp - hewlett packard color laserjet cm 4730 f (644a / q 6460 a) - original - toner black - 12.000 pages</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A03483901OR02M8IVNEI4&amp;url=%2FHP-Hewlett-Packard-LaserJet-original%2Fdp%2FB005XJTSBK%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhp%2B6460%26qid%3D1630944404%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630944404&amp;id=3552529691934854&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>hp - hewlett packard color laserjet cm 4730 (644a / q 6460 a) - original - toner black - 12.000 pages</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Hewlett-Packard-LaserJet-original/dp/B005X9U25G/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+6460&amp;qid=1630944404&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>hp - hewlett packard color laserjet cm 4730 f (644a / q 6460 a) - original - toner black - 12.000 pages</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Hewlett-Packard-LaserJet-original/dp/B005XJTSBK/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+6460&amp;qid=1630944404&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>hp - hewlett packard color laserjet 4730 mfp (644a / q 6460 a) - original - toner black - 12.000 pages</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Hewlett-Packard-LaserJet-original/dp/B005XAGQNW/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+6460&amp;qid=1630944404&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>hp - hewlett packard color laserjet cm 4730 mfp (644a / q 6460 a) - original - toner black - 12.000 pages</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Hewlett-Packard-LaserJet-original/dp/B005XABHOU/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+6460&amp;qid=1630944404&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sparepart: hp assy fixing, rm2-6460-000cn</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Sparepart-HP-Assy-Fixing-RM2-6460-000CN/dp/B0981XHFVP/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+6460&amp;qid=1630944404&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 6460  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>teclado para computadora portátil nuevo teclado para computadora portátil con varilla indicadora (sin marco) reemplazo para hp probook 6460 6465 6460b 6465b elitebook 8460p 8460w diseño de ee. uu. col</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/computadora-port%C3%A1til-indicadora-Reemplazo-Elitebook/dp/B093XYYTX9/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+6460&amp;qid=1630944404&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 650 g1  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>hp 650 g1 - ordenador portátil de 15,6" (intel core i5- 4ª gen., 4 gb ram, disco hdd 320gb, windows 10 upgrade) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-650-G1-Ordenador-Reacondicionado/dp/B08PC3BWNY/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+650+g1&amp;qid=1630944425&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp 8460p  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ashata ventilador de enfriamiento de la cpu, ventilador de cpu portátil silencioso disipación de calor rápida, adecuado para portátil hp elitebook 8460p 8560p 8560w 8570w</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASHATA-Ventilador-silencioso-disipaci%C3%B3n-Enfriador/dp/B07HB1WB53/ref=sr_1_32?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+8460p&amp;qid=1630944480&amp;s=electronics&amp;sr=1-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp chromebook 11 g8  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>hp s0228518 ultrabook chromebook 11 g8 ee 11.6" n4120, 4 gb ram, 32 gb emmc, verde</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Chromebook-N4120-32eMMC-Verde/dp/B08LDVYZP6/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+chromebook+11+g8&amp;qid=1630944509&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp compaq  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>hp compaq pro 6300 sff 3.2ghz i5-3470 sff negro pc -ordenador de sobremesa intel core i5, 8gb ram , 500 gb hdd, dvd ,windows 7 professional)(reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Ordenador-sobremesa-Professional-Reacondicionado/dp/B07N459RNQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+compaq&amp;qid=1630944566&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp compaq  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hp compaq 6305 pro (sff) [amd quad core a8 - 5500b cpu, 4 gb ram, 250 gb hdd, dvdrw] with windows 10 professional (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-A8-5500B-Windows-Professional-Reacondicionado/dp/B07VQFL9MM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+compaq&amp;qid=1630944566&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp compaq  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>hp compaq pro 6300 sff - ordenador de sobremesa (intel core i5-3470, 8gb de ram, disco ssd de 240gb, lector dvd, windows 10 home es 64) - negro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Compaq-Pro-6300-Reacondicionado/dp/B07Z4RBM4B/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+compaq&amp;qid=1630944566&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp compaq  </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hp compaq elite 8300 desktop, intel core i5, 2.9ghz, 8gb ram, 320gb hdd, dvd-rw, win10pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Desktop-Win10Pro-Reacondicionado-Certificado/dp/B01L6PIZ2W/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+compaq&amp;qid=1630944566&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp compaq  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>hp compaq pro 6300 sff 3.2ghz i5-3470 sff negro pc - ordenador de sobremesa (3,2 ghz, 3ª generación de procesadores intel® core™ i5, 8 gb, 500 gb, dvd super multi, windows 7 professional)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Compaq-3-2GHz-i5-3470-Negro/dp/B009KGE9NE/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+compaq&amp;qid=1630944566&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g1 14" intel i7-4600u 2.1ghz 8gb 500gb windows 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-i7-4600U-Windows-reacondicionado/dp/B09168PDB5/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 14 pulgadas intel core i5-6300u 8gb ram ddr4 windows 10 profesional gris (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-pulgadas-Profesional-Reacondicionado/dp/B087RF26RN/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g2 - pc portátil - 12.5 '' - (core i5-5200u / 2.20 ghz, 8gb ram, ssd 128gb ssd, wifi, windows 10, teclado qwerty) modelo muy rápido (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-820-G2-Reacondicionado/dp/B08CKNM1WT/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g1 14 pulgadas 1920 x 1080 full hd intel core i7 256 gb ssd disco duro 8 gb de memoria windows 10 pro business notebook laptop (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-pulgadas-certificado-reacondicionado/dp/B0887CDDTL/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>hp elitebook 830 g7 i5-10210u syst</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ELITEBOOK-830-I5-10210U-SYST/dp/B08PFFY9SG/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>hp elitebook 850 g7 - ordenador portátil profesional de 15.6" fhd ips (intel core i5-10210u, 8 gb ram, 256 gb ssd, intel uhd graphics 620, windows 10 pro 64) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-850-Ordenador-Profesional/dp/B08QMMVN4M/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2019 hp elitebook 840 g4 14" business laptop computer, intel core i5-7200u hasta 3.1 ghz, 32gb ddr4 ram, 512gb ssd, 802.11ac wifi, bluetooth 4.2, usb 3.1, windows 10 professional</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-840-G4-Professional/dp/B07SD45KC1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>hp elitebook 850 g3 – 15,6 pulgadas fhd, intel i7 – 6600u, 8 gb ddr4, 256 gb ssd, windows 10 pro, teclado qwerty – renewed)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-850-G3-pulgadas/dp/B09447XBS8/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>portátil hp elitebook 820 g1 business # 12,5, intel core i5 1,9 ghz, 8 gb de ram, 180 gb ssd, wlan, usb 3.0, webcam, windows 10 professional (reacondicionado) (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-Professional-reacondicionado-Certificado/dp/B07L4XJGCP/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g1 - pc portátil - 12.5 '' - (core i5-4300u / 1.9 ghz, 8gb ram, ssd 128gb ssd, wifi, windows 10, teclado qwerty) modelo muy rápido (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-820-G1-Reacondicionado/dp/B00YUQMNL4/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 - ordenador portátil de 14 pulgadas, cpu core i5 2,3 ghz, 8 gb ram, 256 gb ssd, windows 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-840-Ordenador-Reacondicionado/dp/B07RBVZLNT/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g3 (12,5 pulgadas) notebook pc core i5 (6200u) 2,3 ghz 8 gb 256 gb ssd wlan bt webcam windows 10 pro 64 bits (hd graphics 520) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-pulgadas-Notebook-reacondicionado/dp/B07RC6YQLD/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook&amp;qid=1630944608&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g1  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g1 - pc portátil - 12.5 '' - (core i5-4300u / 1.9 ghz, 8gb ram, ssd 128gb ssd, wifi, windows 10, teclado qwerty) modelo muy rápido (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-820-G1-Reacondicionado/dp/B00YUQMNL4/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g1&amp;qid=1630944705&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g1  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g1 - ordenador portátil ultrabook (intel core i5-4300u, 8 gb de ram, 180 gb ssd, wifi, webcam, windows 10 professional de 64 bits) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-port%C3%A1til-Ultrabook-Professional/dp/B0822SRYGJ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g1&amp;qid=1630944705&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g1  </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>portátil hp elitebook 820 g1 business # 12,5, intel core i5 1,9 ghz, 8 gb de ram, 180 gb ssd, wlan, usb 3.0, webcam, windows 10 professional (reacondicionado) (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-Professional-reacondicionado-Certificado/dp/B07L4XJGCP/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g1&amp;qid=1630944705&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g1  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>hp 2013 ultraslim docking station negro - base (acoplamiento, hp elitebook 820 g1 notebook pc; hp elitebook 840 g1 notebook pc; hp elitebook 850 g1 notebook pc, negro, 368 mm, 107 mm, 44 mm)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-UltraSlim-Docking-Station-Negro/dp/B017EKI19A/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g1&amp;qid=1630944705&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g2  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g2 - pc portátil - 12.5 '' - (core i5-5200u / 2.20 ghz, 8gb ram, ssd 128gb ssd, wifi, windows 10, teclado qwerty) modelo muy rápido (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-820-G2-Reacondicionado/dp/B08CKNM1WT/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g2&amp;qid=1630944722&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g2  </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g2 plata portátil 31,8 cm (12.5") 1366 x 768 pixeles 2,2 ghz 5ª generación de procesadores intel® core™ i5 i5-5200u - ordenador portátil (5ª generación de procesadores intel® core™ i5, 2,2 ghz, 31,8 cm (12.5"), 1366 x 768 pixeles, 4 gb, 500 gb)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-820-G2-N6Q20EA/dp/B013FBSAC0/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g2&amp;qid=1630944722&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g2  </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g2 - teclado qwertz de 12,5 pulgadas fhd, intel i5, 8 gb ddr4, 256 gb ssd, windows 10 pro, renewed)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-820-G2-pulgadas/dp/B0943XWRW3/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g2&amp;qid=1630944722&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g3  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g3 (12,5 pulgadas) notebook pc core i5 (6200u) 2,3 ghz 8 gb 256 gb ssd wlan bt webcam windows 10 pro 64 bits (hd graphics 520) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-pulgadas-Notebook-reacondicionado/dp/B07RC6YQLD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g3&amp;qid=1630944747&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 820 g3  </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>hp elitebook 820 g3 i5-6300u 8 gb 256 gb ssd 12,5 pulgadas fhd led windows 10 professional (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-i5-6300U-Professional-Reacondicionado/dp/B0821F35XB/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+820+g3&amp;qid=1630944747&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g2  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g2 - ordenador portátil (14 pulgadas, intel core i5 256 gb ssd, disco duro de 8 gb, win 10 l3z73ua) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-840-G2-Ordenador/dp/B07NSFXRSK/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g2&amp;qid=1630944772&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g2  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g2 de 14 pulgadas ultrabook pc portátil (intel core i5-5200u, 8 gb de ram, 512 gb ssd wifi, webcam, windows 10 professional de 64 bits) (reacondicionado certificado)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-Professional-reacondicionado-Certificado/dp/B07W7LCDYK/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g2&amp;qid=1630944772&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g2  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g2 de 14 pulgadas ultrabook pc portátil intel core i5-5300u, 16 gb de ram, ssd de 256gb, wifi, webcam, windows 10 professional de 64 bits (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-Professional-reacondicionado-Certificado/dp/B07W5JKTRW/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g2&amp;qid=1630944772&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 14" intel core i5 6300u, 8 gb ram, 256 gb ssd, windows 7 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-Intel-Windows-renovado/dp/B07SXTHF68/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 14 pulgadas intel core i5-6300u 8gb ram ddr4 windows 10 profesional gris (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-pulgadas-Profesional-Reacondicionado/dp/B087RF26RN/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 - ordenador portátil de 14 pulgadas, cpu core i5 2,3 ghz, 8 gb ram, 256 gb ssd, windows 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-840-Ordenador-Reacondicionado/dp/B07RBVZLNT/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 - ordenador portátil de 14" teclado azerty (intel core i5-6300, 8gb ram, disco hdd 240gb ssd, windows 10 profesional upgrade) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-840-G3-Reacondicionado/dp/B094RD1QZQ/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 i5-6300u 2.4ghz, 8gb ram, 256gb ssd, 14" fhd, win 10 pro – teclado qwertz (refurbished)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-840-G3-i5-6300U/dp/B08P7N6CL1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 - cámara web (intel core i5-6200u, 6ª generación, 2,3 ghz, 16 gb de ram, 1 tb, disco duro windows 10 pro 64 bits)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ELITEBOOK-I5-6200U-Windows-renovado/dp/B084JDM1P4/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 2.4ghz i5-6300u 8gb ssd 256 gb 14in 1920 x 1080pixeles plata (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-i5-6300U-1080Pixeles-Reacondicionado/dp/B07NWWHCXJ/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 - ordenador portátil de 14" (intel core i5-6300, 4gb ram, disco hdd 320gb, windows 10 profesional upgrade) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-840-Profesional-Reacondicionado/dp/B08XB91LNR/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 / pc laptop/ 256gb ssd / 8gb ram ddr4/ i5 6300u vpro processor / pantalla full hd de 14 "(nuevo)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-840-G3-L3C65AV/dp/B072BXLRBF/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 intel core i5-6200u 6ª generación de 2,3 ghz webcam 8 gb ram 256 gb ssd windows 10 pro 64 bits (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ELITEBOOK-I5-6200U-Windows-renovado/dp/B084GZ872B/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 intel core i5-6200u 6ª gen 2.3ghz webcam 16gb ram 256gb ssd windows 10 pro 64bit (renovado)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ELITEBOOK-I5-6200U-Windows-renovado/dp/B084JDRB6M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g3  </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>hp elitebook 840 g3 ultrabook - full hd (1920x1080) core i5-6300u, 8 gb de ram, ssd 512 gb, webcam, wifi, windows 10 pro (teclado azerty francés) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-840-G3-Ultrabook/dp/B08DYDQDZ1/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g3&amp;qid=1630944793&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 840 g4  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2019 hp elitebook 840 g4 14" business laptop computer, intel core i5-7200u hasta 3.1 ghz, 32gb ddr4 ram, 512gb ssd, 802.11ac wifi, bluetooth 4.2, usb 3.1, windows 10 professional</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Elitebook-840-G4-Professional/dp/B07SD45KC1/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+840+g4&amp;qid=1630944806&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 8460p  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ashata ventilador de enfriamiento de la cpu, ventilador de cpu portátil silencioso disipación de calor rápida, adecuado para portátil hp elitebook 8460p 8560p 8560w 8570w</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASHATA-Ventilador-silencioso-disipaci%C3%B3n-Enfriador/dp/B07HB1WB53/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+8460p&amp;qid=1630944848&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 850 g1  </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>hp 2013 ultraslim docking station negro - base (acoplamiento, hp elitebook 820 g1 notebook pc; hp elitebook 840 g1 notebook pc; hp elitebook 850 g1 notebook pc, negro, 368 mm, 107 mm, 44 mm)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-UltraSlim-Docking-Station-Negro/dp/B017EKI19A/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+850+g1&amp;qid=1630944874&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 850 g7  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>hp elitebook 850 g7 - ordenador portátil profesional de 15.6" fhd ips (intel core i5-10210u, 8 gb ram, 256 gb ssd, intel uhd graphics 620, windows 10 pro 64) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-850-Ordenador-Profesional/dp/B08QMMVN4M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+850+g7&amp;qid=1630944899&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 850 g7  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>hp elitebook 850 g7 - ordenador portátil de 15,6 pulgadas (intel i7, ssd 256 gb + ram de 8 gb, sistema operativo windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-850-Ordenador-operativo/dp/B08J89VCDR/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+850+g7&amp;qid=1630944899&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 850 g7  </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>hp elitebook 850 g7 - ordenador portátil de 15,6 pulgadas (intel i5, ssd 512 gb + ram de 16 gb, s.o. windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-EliteBook-850-G7-Ordenador/dp/B08J89NXX9/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+850+g7&amp;qid=1630944899&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook 8560w  </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ashata ventilador de enfriamiento de la cpu, ventilador de cpu portátil silencioso disipación de calor rápida, adecuado para portátil hp elitebook 8460p 8560p 8560w 8570w</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASHATA-Ventilador-silencioso-disipaci%C3%B3n-Enfriador/dp/B07HB1WB53/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+8560w&amp;qid=1630944971&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook folio 9470m  </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>batería original hp elitebook folio 9470m 14.8 v 52 wh genuine battery bt04xl 687945-001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Bater%C3%ADa-Original-HP-EliteBook-687945-001/dp/B0746SYGL2/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+folio+9470m&amp;qid=1630945059&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp elitebook folio 9480m  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>componentwarehouse 2 polos compatible para hp elitebook folio 725 820 9470m 9480m para para 702853-001 repuesto bios cmos batería rtc</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Componentwarehouse-Compatible-Elitebook-702853-001-Repuesto/dp/B0823YBG9V/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+elitebook+folio+9480m&amp;qid=1630945076&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 13  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>hp envy 13-ba1002ns - ordenador portátil de 13.3" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, nvidia mx450-2gb, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Envy-13-ba1002ns-Ordenador-i7-1165G7/dp/B08PFKL37S/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+13&amp;qid=1630945118&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 13  </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>hp envy x360 13-ay0004ns - ordenador portátil de 13.3" fullhd (ryzen 7-4700u, 16gb de ram, 512gb ssd, amd radeon integrated graphics, windows 10 ) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Envy-X360-13-ay0004ns-Integrated/dp/B08PFKKWY4/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+13&amp;qid=1630945118&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 13  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>hp envy 13-ah0005ns - ordenador portátil 13.3" fullhd (intel core i7-8550u, 8gb ram, 256gb sdd, nvidia geforce mx 150, windows 10) color plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Envy-13-ah0005ns-Ordenador-Port%C3%A1til/dp/B07F6Q31PZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+13&amp;qid=1630945118&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 13  </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>hp envy 13-ba0005ns - ordenador portátil de 13.3" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, nvidia geforce mx350, windows 10 home) dorado - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ENVY-13-ba0005ns-Ordenador-i7-10510U/dp/B08Q3WYW68/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+13&amp;qid=1630945118&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 13  </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>hp envy 13-ba0000ns - ordenador portátil de 13.3" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, nvidia geforce mx350, windows 10 home) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ENVY-13-ba0000ns-Ordenador-i5-10210U/dp/B08Q3YLRB4/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+13&amp;qid=1630945118&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 15  </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>hp envy x360 15s-eq1000 blanco 15.6'' hd athlon-3050u 256gb ssd 8gb ram windows 10 home</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-EQ1000-Blanco-Athlon-3050U-Windows/dp/B08KTMFGYQ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+15&amp;qid=1630945144&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 17  </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>portátil hp envy 17-cg1000ns, i7-1165g7 (2.8ghz), nvidia geforce mx450 2gb, 17.3" fhd led, 16gb ram (2x8gb), ssd 1tb pcie nvme, wifi, bluetooth, webcam, windows 10 h (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-17-cg1000ns-i7-1165G7-Bluetooth-Reacondicionado/dp/B096YC1S85/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+17&amp;qid=1630945161&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy 17  </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>hp portátil envy 17-cg0000ns intel core i7-1065g7, ram 16gb, 1tb pcie nvme m.2 ssd, 17.3" nvidia geforce mx330 2gb, win 10 home, teclado español (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Port%C3%A1til-17-cg0000ns-i7-1065G7-Reacondicionado/dp/B08NP4QFHG/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+17&amp;qid=1630945161&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy x360 13  </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>hp envy x360 13-ay0004ns - ordenador portátil de 13.3" fullhd (ryzen 7-4700u, 16gb de ram, 512gb ssd, amd radeon integrated graphics, windows 10 ) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Envy-X360-13-ay0004ns-Integrated/dp/B08PFKKWY4/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+x360+13&amp;qid=1630945194&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy x360 13  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>hp envy x360 13-ay0286ng schwarz hybrid (2-in-1) 33,8 cm (13.3 zoll) 1920 x 1080 pixel touchscreen amd ryzen 7 16 gb ddr4-sdram 1000 gb ssd wi-fi 5 (802.11ac) windows 10 home</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-13-ay0286ng-Touchscreen-DDR4-SDRAM-802-11ac/dp/B08828C6F5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+x360+13&amp;qid=1630945194&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp envy x360 13  </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>portátil - notebook convertible - hp envy x360 13-ay0001ns, amd ryzen5-4500u ram 8gb ssd 512gb 13.3" fhd bv led, windows 10 home, teclado español (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Convertible-13-ay0001ns-RYZEN5-4500U-Reacondicionado/dp/B08Q45HNXM/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+envy+x360+13&amp;qid=1630945194&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp laptop 15  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>hp omen laptop 15-ek0015ns - ordenador portátil de 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1660ti-4gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-Laptop-15-ek0015ns-Ordenador/dp/B08BJ9QP2H/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+laptop+15&amp;qid=1630945235&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp laptop 15  </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>hp laptop 15s-eq1090 plata portátil 15.6" hd amd ryzen 5-4500u 256gb ssd 8gb ram windows 10 home</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15s-EQ1090-Port%C3%A1til-5-4500U-Windows/dp/B091BDMVR5/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+laptop+15&amp;qid=1630945235&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp laptop 15  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>hp omen laptop 15-ek0005ns - ordenador portátil de 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-Laptop-15-ek0005ns-RTX2060-6GB/dp/B08BJC8YC8/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+laptop+15&amp;qid=1630945235&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp notebook 17  </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>hp notebook 17-cn0001ns</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-406A7EA-ABF-Notebook-17-CN0001NS/dp/B095BLG8VS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+notebook+17&amp;qid=1630945354&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp notebook 250 g5  </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>hp pc notebook 250 g5 (energy star) - ordenador portátil (6ª generación de procesadores intel® core™ i5, 2,3 ghz, 39,6 cm (15.6"), 4 gb, 500 gb, windows 10 home)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Hp-notebook-ordenador-port%C3%A1til-negocios/dp/B01KTIO35U/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+notebook+250+g5&amp;qid=1630945397&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>hp omen laptop 15-ek0015ns - ordenador portátil de 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia gtx1660ti-4gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-Laptop-15-ek0015ns-Ordenador/dp/B08BJ9QP2H/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>hp omen 15-en0013ns - ordenador portátil de 15" fhd (amd ryzen 7-4800h, 16gb ram, 512gb ssd, nvidia gtx1650 ti-4gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-15-en0013ns-Ordenador-operativo/dp/B08GKZ4MMN/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>hp omen 15-en0017ns - ordenador portátil gaming de 15.6" fullhd (ryzen 7-4800h, 16gb de ram, 512gb ssd, nvidia rtx2060-6gb, sin sistema operativo ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Omen-15-en0017ns-Ordenador-RTX2060-6GB/dp/B08PFKK677/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>hp omen 15-en0003ns - ordenador portátil de 15.6" fullhd (amd ryzen 7 4800h, 16gb ram, 1tb ssd, nvidia gtx1650 ti-4gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-15-en0003ns-Ordenador-operativo/dp/B08D6G3G7S/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>hp omen 15-en0018ns 15.6" fullhd (1920 x 1080 pixeles amd ryzen 7 16 gb 512 gb ssd nvidia® geforce® gtx 1650 ti windows 10 home) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15-en0018ns-Pixeles-NVIDIA%C2%AE-GeForce%C2%AE/dp/B08T1WL9Q3/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>hp omen laptop 15-ek0005ns - ordenador portátil de 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-Laptop-15-ek0005ns-RTX2060-6GB/dp/B08BJC8YC8/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>hp omen 15-en1012ns - ordenador portátil de 15.6" full hd (amd ryzen 7 5800h, 16gb ram, 1000gb ssd, nvidia geforce rtx 3060, freedos) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-15-en1012ns-Ordenador-port%C3%A1til/dp/B08T6JXD38/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>hp omen laptop 15-ek0006ns - ordenador portátil de 15.6" fullhd 300hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2070-8gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-OMEN-Laptop-15-ek0006ns-RTX2070-8GB/dp/B08BJ9DW6J/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp omen 15  </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>hp omen by 15-ek0000ng 15,6" fhd ips 144hz, intel i7-10750h, 16gb ram, 512gb ssd, rtx 2060, windows 10</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-15-ek0000ng-144Hz-i7-10750H-Windows/dp/B08933SBGG/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+omen+15&amp;qid=1630945425&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0020ns - ordenador portátil de 14" fullhd (intel core i5-1135g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0020ns-Ordenador-i5-1135G7/dp/B08PFJZCLR/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1028ns - ordenador portátil convertible de 14" fullhd táctil (intel core i5-1135g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-X360-14-dw1028ns-convertible/dp/B08PFJXSW5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 15-ec1028ns 15.6" fullhd (1920 x 1080 pixeles amd ryzen 7 16 gb 512 gb ssd nvidia® geforce® gtx 1650 ti freedos) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-ec1028ns-Pixeles-GeForce%C2%AE/dp/B08T218PJ8/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>hp pavilion tp01-2001ns - ordenador de sobremesa (intel core i5-11400, 16 gb ddr4-sdram, 512 gb ssd, windows 10 home), plateado</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-TP01-2001ns-Ordenador-DDR4-SDRAM/dp/B0957YB1GW/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1033ns 14\" 1920 x 1080 pixeles pantalla táctil intel core i7-11xxx 16 gb 512 gb ssd windows 10 home</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dw1033ns-Pantalla-i7-11xxx/dp/B08T25X8MP/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 16-a0024ns - ordenador portátil de 16.1" fullhd (intel core i7-10750h, 8gb ram, 512gb ssd, nvidia gtx1650 ti-4gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-Gaming-16-a0024ns-Ordenador/dp/B08D6DB6RB/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1023ns - ordenador portátil convertible de 14" fullhd táctil (intel core i7-1165g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-X360-14-dw1029ns-convertible/dp/B08PFK1TTF/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0011ns – ordenador portátil de 14" fullhd (intel core i5-1135g7 , 8gb ram, 512gb ssd, intel iris xe, windows 10) blanco – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0011ns-Ordenador-i5-1135G7/dp/B08MCDSNGM/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0019ns - ordenador portátil de 15.6" full hd (intel core i7-1165g7, 16gb ram, 1000gb ssd, intel iris xe graphics, windows 10 home) silver - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0019ns-Ordenador-i7-1165G7/dp/B08T6FZKRS/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0018ns - ordenador portátil de 15.6" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) blue - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0018ns-Ordenador-i7-1165G7/dp/B08T6G26J8/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>hp pavilion 14 x360 14-dw1018ns - ordenador portátil convertible de 14" fullhd táctil (intel core i7-1165g7, 8gb de ram, 1tb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-x360-14-dw1018ns-convertible/dp/B08MCDPVCJ/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0012ns – ordenador portátil de 14” fullhd (intel core i5-1135g7 , 16 gb ram, 512 gb ssd, nvidia geforce mx350-2gb, windows 10) plata – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0012ns-Ordenador-i5-1135G7/dp/B08MCDMP4L/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0010ns – ordenador portátil de 15.6” fhd (intel core i5-1135g7, 16gb de ram, 1tb ssd, nvidia mx350-2gb, windows 10), azul aluminio - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0010ns-Ordenador-i5-1135G7/dp/B08GL1HSHV/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion  </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 16-a0043ns - ordenador portátil de 16.1" fullhd de 144hz (intel core i7-10750h, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-Gaming-16-a0043ns-RTX2060-6GB/dp/B08PFK1TVB/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion&amp;qid=1630945447&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 13  </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>hp pavilion aero 13-be0006ns - ordenador portátil de 13.3" wqxga (amd ryzen 7 5800u, 16gb ram, 512gb ssd, amd radeon graphics, windows 10 home) silver - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-Aero-13-be0006ns-Ordenador/dp/B096V3489K/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+13&amp;qid=1630945493&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 13  </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1028ns - ordenador portátil convertible de 14" fullhd táctil (intel core i5-1135g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-X360-14-dw1028ns-convertible/dp/B08PFJXSW5/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+13&amp;qid=1630945493&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 13  </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>hp pavilion - 14-ce3007ns - ordenador portátil de 14" fullhd (intel core i5-1035g1, 16gb de ram, 1tb ssd, nvidia mx130-2gb, windows 10) plata natural - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-ce3007ns-Ordenador-i5-1035G1/dp/B081QMS5WY/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+13&amp;qid=1630945493&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0020ns - ordenador portátil de 14" fullhd (intel core i5-1135g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0020ns-Ordenador-i5-1135G7/dp/B08PFJZCLR/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1028ns - ordenador portátil convertible de 14" fullhd táctil (intel core i5-1135g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-X360-14-dw1028ns-convertible/dp/B08PFJXSW5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0011ns – ordenador portátil de 14" fullhd (intel core i5-1135g7 , 8gb ram, 512gb ssd, intel iris xe, windows 10) blanco – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0011ns-Ordenador-i5-1135G7/dp/B08MCDSNGM/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1033ns 14\" 1920 x 1080 pixeles pantalla táctil intel core i7-11xxx 16 gb 512 gb ssd windows 10 home</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dw1033ns-Pantalla-i7-11xxx/dp/B08T25X8MP/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1023ns - ordenador portátil convertible de 14" fullhd táctil (intel core i7-1165g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-X360-14-dw1029ns-convertible/dp/B08PFK1TTF/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>hp pavilion - 14-ce3007ns - ordenador portátil de 14" fullhd (intel core i5-1035g1, 16gb de ram, 1tb ssd, nvidia mx130-2gb, windows 10) plata natural - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-ce3007ns-Ordenador-i5-1035G1/dp/B081QMS5WY/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>hp pavilion 14 x360 14-dw1018ns - ordenador portátil convertible de 14" fullhd táctil (intel core i7-1165g7, 8gb de ram, 1tb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-x360-14-dw1018ns-convertible/dp/B08MCDPVCJ/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0012ns – ordenador portátil de 14” fullhd (intel core i5-1135g7 , 16 gb ram, 512 gb ssd, nvidia geforce mx350-2gb, windows 10) plata – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0012ns-Ordenador-i5-1135G7/dp/B08MCDMP4L/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0019ns - ordenador portátil de 14" fullhd (intel core i5-1135g7, 16gb de ram, 512gb ssd, nvidia mx350-2gb, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0019ns-Ordenador-i5-1135G7/dp/B08PF9STC5/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>portátil hp pavilion x360 convert 14-dw0027ns, intel i7-1065g7 (1.3ghz), 14.0" fhd led táctil, 8gb ram, ssd 512gb pcie nvme, , teclado retroiluminado, windows 10 home</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-HP-14-dw0027ns-i7-1065G7-retroiluminado/dp/B0973RB6HM/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>hp pavilion 14-dv0021ns - ordenador portátil 14" fullhd (intel core i5-1135g7, 16gb de ram, 512gb ssd, intel iris xe, windows 10) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-14-dv0021ns-Ordenador-i5-1135G7/dp/B08T1WHZRC/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 14  </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 táctil - 14-dh1012ns - ordenador portátil de 14" fullhd convertible (intel core i5-10210u, 8gb ram, 512gb ssd, intel graphics uhd, windows 10 home 64) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-x360-14-dh1012ns-Ordenador/dp/B081QM6MCL/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+14&amp;qid=1630945507&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 15-dk0000ns portátil core i5 ram 8gb ssd 256gb 15.6" 1920 x 1080 pixeles nvidia geforce gtx 1050 windows 10 home</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A07372921RZ1A550WKZOO&amp;url=%2FHP-Pavilion-15-dk0000ns-Port%25C3%25A1til-Pixeles%2Fdp%2FB07SDV9RSJ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dhp%2Bpavilion%2B15%26qid%3D1630945520%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630945520&amp;id=1472809561166301&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0019ns - ordenador portátil de 15.6" full hd (intel core i7-1165g7, 16gb ram, 1000gb ssd, intel iris xe graphics, windows 10 home) silver - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0019ns-Ordenador-i7-1165G7/dp/B08T6FZKRS/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+15&amp;qid=1630945520&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 15-ec1028ns 15.6" fullhd (1920 x 1080 pixeles amd ryzen 7 16 gb 512 gb ssd nvidia® geforce® gtx 1650 ti freedos) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-ec1028ns-Pixeles-GeForce%C2%AE/dp/B08T218PJ8/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+15&amp;qid=1630945520&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0017ns - ordenador portátil de 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, nvidia mx450-2gb, windows 10 ) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0017ns-Ordenador-i7-1165G7/dp/B08PFC16JG/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+15&amp;qid=1630945520&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0018ns - ordenador portátil de 15.6" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) blue - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0018ns-Ordenador-i7-1165G7/dp/B08T6G26J8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+15&amp;qid=1630945520&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>hp pavilion gaming 15-ec1008ns - ordenador portátil de 15.6" fullhd (amd ryzen 5 4600h, 8gb ram, 256gb ssd, nvidia gtx1050-3gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-Gaming-15-ec1008ns-GTX1050-3GB/dp/B088V5PYZ4/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+15&amp;qid=1630945520&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 15  </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0010ns – ordenador portátil de 15.6” fhd (intel core i5-1135g7, 16gb de ram, 1tb ssd, nvidia mx350-2gb, windows 10), azul aluminio - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0010ns-Ordenador-i5-1135G7/dp/B08GL1HSHV/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+15&amp;qid=1630945520&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion 17  </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>hp pavilion 15-eg0017ns - ordenador portátil de 15.6" fullhd (intel core i7-1165g7, 16gb de ram, 512gb ssd, nvidia mx450-2gb, windows 10 ) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-15-eg0017ns-Ordenador-i7-1165G7/dp/B08PFC16JG/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+17&amp;qid=1630945545&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp pavilion x360 13  </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>hp pavilion x360 14-dw1028ns - ordenador portátil convertible de 14" fullhd táctil (intel core i5-1135g7, 8gb de ram, 512gb ssd, intel iris xe, windows 10 ) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Pavilion-X360-14-dw1028ns-convertible/dp/B08PFJXSW5/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+pavilion+x360+13&amp;qid=1630945602&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 430 g6  </t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>hp thunderbolt dock g2 with audio moduleestacin de conexinusb-cvga, 2 x dpgige120 vatioseupara elitebook x360, probook 430 g6, 44x g6, 45x g6, probook x360, spectre x360</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Thunderbolt-Docking-Station-Audiomodul/dp/B07FBWVDPY/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+430+g6&amp;qid=1630945691&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 440 g1  </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>dekoelektropunktde compatible con hp compaq probook 440 g0 g1 g2 g3 | 8gb ram memoria sodimm ddr3 pc3 para</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/dekoelektropunktde-Compatible-Compaq-ProBook-Memoria/dp/B07H9Y4BZY/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+440+g1&amp;qid=1630945721&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 635  </t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>hp probook 635 aero g7 computer portatile 33,8 cm (13.3") 1920 x 1080 pixel amd</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ProBook-G7-Computer-portatile/dp/B08VMRPC4H/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+635&amp;qid=1630945910&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 635  </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>hp probook 635 aero g7 r5-4650usyst</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-PROBOOK-635-Aero-R5-4650USYST/dp/B091DZ8PKH/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+635&amp;qid=1630945910&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 635    </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>hp probook 635 aero g7 computer portatile 33,8 cm (13.3") 1920 x 1080 pixel amd</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ProBook-G7-Computer-portatile/dp/B08VMRPC4H/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+635&amp;qid=1630945936&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 635    </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>hp probook 635 aero g7 r5-4650usyst</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-PROBOOK-635-Aero-R5-4650USYST/dp/B091DZ8PKH/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+635&amp;qid=1630945936&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook 640 g3  </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>hp inc. hp probook 640 g3 35,6 cm 14zoll fhd ag uma inte (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ProBook-640-G3-35-14zoll-Reacondicionado/dp/B088C49B8X/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+640+g3&amp;qid=1630946024&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook x360 435 g7  </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>hp probook x360 435 g7 - ordenador portátil profesional de 13.3" fhd ips (amd ryzen 5 4500u, 8 gb ram, 256 gb ssd, gráficos amd radeon, windows 10 pro, aluminio)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-null/dp/B08DMBQTP4/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+x360+435+g7&amp;qid=1630946328&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp probook x360 435 g7  </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>hp probook x360 435 g7 - ordenador portátil profesional de 13.3" fhd (amd ryzen 3 4300, 8 gb ram, 256 gb ssd, gráficos amd radeon, windows 10 pro, aluminio) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-PB360435G7-R3-4300U-8GB-256/dp/B08CZ7YHN1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+probook+x360+435+g7&amp;qid=1630946328&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp stream 14  </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>hp stream 14s-fq0005ns - ordenador portátil de 14" hd (prcesador 3020e dual, 4gb ram, 64gb emmc, amd radeon graphics, windows 10 home en modo s) blanco nieve – teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-Stream-14s-fq0005ns-Ordenador-Prcesador/dp/B08MCDKL4M/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+stream+14&amp;qid=1630946370&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook 15 g2  </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>hp zbook 15 g2 2.5ghz i7-4710mq 15.6" 1920 x 1080pixeles negro - ordenador portátil (estación de trabajo móvil, negro, concha, i7-4710mq, intel core i7-4xxx, pga946)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ZBook-2-5GHz-i7-4710MQ-1080Pixeles-Negro/dp/B00VYELZSC/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+15+g2&amp;qid=1630946452&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook 15 g2  </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>hp zbook 15 g2 (15,6" fhd) notebook i7-4810 3,80 ghz 16gb 256gb ssd+500gb hdd win10 pro bluetooth 4.2 usb 3.0 hd webcam</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBook-Notebook-i7-4810-Bluetooth/dp/B07VT7NXXS/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+15+g2&amp;qid=1630946452&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook power g7  </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>hp zbook power 15 g7 i7-10750h syst</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBOOK-Power-I7-10750H-SYST/dp/B08QMQ2C73/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+power+g7&amp;qid=1630946504&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook power g7  </t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>hp zbook power g7 i7-10750h syst</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBOOK-Power-I7-10750H-SYST/dp/B091DZGJMG/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+power+g7&amp;qid=1630946504&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook power g7  </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>hp zbook power g7 i7-10750h syst</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBOOK-Power-I7-10750H-SYST/dp/B08QMNF15R/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+power+g7&amp;qid=1630946504&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook power g7  </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>hp zbook power g7 estación de trabajo móvil - 39,6 cm (15,6") - core i7 10750h - negro</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBook-Power-Estaci%C3%B3n-Trabajo/dp/B08PMY1FJD/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+power+g7&amp;qid=1630946504&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook power g7  </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>hp zbook power g7 estación de trabajo móvil - 39,6 cm (15,6") - core i7 10750h - plateado</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBook-Power-Estaci%C3%B3n-Trabajo/dp/B08Q9YN97T/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+power+g7&amp;qid=1630946504&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hp zbook power g7  </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>hp zbook power g7 mobile workstation - 39,6 cm (15.6") - core i7 10850h - 16 gb ram - 512 gb ssd -</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HP-ZBook-Power-Mobile-Workstation/dp/B08PW477GJ/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=hp+zbook+power+g7&amp;qid=1630946504&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>